--- a/cypress/downloads/fund_assets.xlsx
+++ b/cypress/downloads/fund_assets.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,145 +427,283 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>شستا</v>
+        <v>وسپهر</v>
       </c>
       <c r="B2" t="str">
-        <v>شرکتهای چند رشته ای صنعتی</v>
+        <v>سرمایه گذاریها</v>
       </c>
       <c r="C2">
-        <v>383040000000</v>
+        <v>56069000000</v>
       </c>
       <c r="D2">
-        <v>1.1183032892</v>
+        <v>1.5561182349</v>
       </c>
       <c r="E2">
-        <v>0.1004933494</v>
+        <v>0.1819371276</v>
       </c>
       <c r="F2">
-        <v>0.02407942</v>
+        <v>0.01769802</v>
       </c>
       <c r="G2">
-        <v>23.76821915</v>
+        <v>2.84611454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>تاپیکو</v>
+        <v>وبصادر</v>
       </c>
       <c r="B3" t="str">
-        <v>محصولات شیمیایی</v>
+        <v>بانک ها، موسسات اعتباری و سایر نهادهای پولی</v>
       </c>
       <c r="C3">
-        <v>423570000000</v>
+        <v>48833099640</v>
       </c>
       <c r="D3">
-        <v>1.3141933514</v>
+        <v>1.5014039866</v>
       </c>
       <c r="E3">
-        <v>0.1214666973</v>
+        <v>0.1453584896</v>
       </c>
       <c r="F3">
-        <v>0.03023869</v>
+        <v>0.01593854</v>
       </c>
       <c r="G3">
-        <v>26.28316778</v>
+        <v>2.47881351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>حکشتی</v>
+        <v>تیپیکو</v>
       </c>
       <c r="B4" t="str">
-        <v>حمل و نقل، انبارداری و ارتباطات</v>
+        <v>مواد و محصولات دارویی</v>
       </c>
       <c r="C4">
-        <v>462080000000</v>
+        <v>70100000000</v>
       </c>
       <c r="D4">
-        <v>1.2883824768</v>
+        <v>0.7326509394</v>
       </c>
       <c r="E4">
-        <v>0.1348464215</v>
+        <v>0.0784467814</v>
       </c>
       <c r="F4">
-        <v>0.04477942</v>
+        <v>0.01141072</v>
       </c>
       <c r="G4">
-        <v>28.67277231</v>
+        <v>3.55834114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>وکار</v>
+        <v>وبملت</v>
       </c>
       <c r="B5" t="str">
         <v>بانک ها، موسسات اعتباری و سایر نهادهای پولی</v>
       </c>
       <c r="C5">
-        <v>242428634205</v>
+        <v>58068000000</v>
       </c>
       <c r="D5">
-        <v>0.2952068674</v>
+        <v>0.8856630173</v>
       </c>
       <c r="E5">
-        <v>0.0676030493</v>
+        <v>0.1058060463</v>
       </c>
       <c r="F5">
-        <v>0.0152652</v>
+        <v>0.03747018</v>
       </c>
       <c r="G5">
-        <v>15.04306836</v>
+        <v>2.94758564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>پاکشو</v>
+        <v>فملی</v>
       </c>
       <c r="B6" t="str">
-        <v>محصولات شیمیایی</v>
+        <v>فلزات اساسی</v>
       </c>
       <c r="C6">
-        <v>51612000000</v>
+        <v>48300000000</v>
       </c>
       <c r="D6">
-        <v>0.3267245052</v>
+        <v>0.823199619</v>
       </c>
       <c r="E6">
-        <v>0.0524019207</v>
+        <v>0.0900707746</v>
       </c>
       <c r="F6">
-        <v>-0.00239513</v>
+        <v>0.0237642</v>
       </c>
       <c r="G6">
-        <v>3.20260371</v>
+        <v>2.45175288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>وبصادر</v>
+        <v>تاصیکو</v>
       </c>
       <c r="B7" t="str">
+        <v>استخراج کانه های فلزی</v>
+      </c>
+      <c r="C7">
+        <v>31775000000</v>
+      </c>
+      <c r="D7">
+        <v>0.3539362408</v>
+      </c>
+      <c r="E7">
+        <v>0.0582551103</v>
+      </c>
+      <c r="F7">
+        <v>0.02728387</v>
+      </c>
+      <c r="G7">
+        <v>1.61292853</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>سفارس</v>
+      </c>
+      <c r="B8" t="str">
+        <v>سیمان، آهک و گچ</v>
+      </c>
+      <c r="C8">
+        <v>72762500000</v>
+      </c>
+      <c r="D8">
+        <v>0.9621651542</v>
+      </c>
+      <c r="E8">
+        <v>0.1077471765</v>
+      </c>
+      <c r="F8">
+        <v>0.04516604</v>
+      </c>
+      <c r="G8">
+        <v>3.69349211</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>انتخاب</v>
+      </c>
+      <c r="B9" t="str">
+        <v>ماشین آلات و تجهیزات</v>
+      </c>
+      <c r="C9">
+        <v>1016494856340</v>
+      </c>
+      <c r="D9">
+        <v>1.2927220328</v>
+      </c>
+      <c r="E9">
+        <v>0.1345797348</v>
+      </c>
+      <c r="F9">
+        <v>0.01170711</v>
+      </c>
+      <c r="G9">
+        <v>51.59822346</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>شستا</v>
+      </c>
+      <c r="B10" t="str">
+        <v>شرکتهای چند رشته ای صنعتی</v>
+      </c>
+      <c r="C10">
+        <v>52147200000</v>
+      </c>
+      <c r="D10">
+        <v>1.1114061145</v>
+      </c>
+      <c r="E10">
+        <v>0.1040262314</v>
+      </c>
+      <c r="F10">
+        <v>0.02129395</v>
+      </c>
+      <c r="G10">
+        <v>2.64704033</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>وکار</v>
+      </c>
+      <c r="B11" t="str">
         <v>بانک ها، موسسات اعتباری و سایر نهادهای پولی</v>
       </c>
-      <c r="C7">
-        <v>48833099640</v>
-      </c>
-      <c r="D7">
-        <v>1.3316671459</v>
-      </c>
-      <c r="E7">
-        <v>0.1323380095</v>
-      </c>
-      <c r="F7">
-        <v>0.00657324</v>
-      </c>
-      <c r="G7">
-        <v>3.03016869</v>
+      <c r="C11">
+        <v>246819441838</v>
+      </c>
+      <c r="D11">
+        <v>0.4363923146</v>
+      </c>
+      <c r="E11">
+        <v>0.0775113587</v>
+      </c>
+      <c r="F11">
+        <v>0.00328698</v>
+      </c>
+      <c r="G11">
+        <v>12.52878422</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>فباهنر</v>
+      </c>
+      <c r="B12" t="str">
+        <v>فلزات اساسی</v>
+      </c>
+      <c r="C12">
+        <v>15750000000</v>
+      </c>
+      <c r="D12">
+        <v>1.2967432778</v>
+      </c>
+      <c r="E12">
+        <v>0.1546501591</v>
+      </c>
+      <c r="F12">
+        <v>0.03468104</v>
+      </c>
+      <c r="G12">
+        <v>0.79948464</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>فولاد</v>
+      </c>
+      <c r="B13" t="str">
+        <v>فلزات اساسی</v>
+      </c>
+      <c r="C13">
+        <v>252900000000</v>
+      </c>
+      <c r="D13">
+        <v>0.8213573532</v>
+      </c>
+      <c r="E13">
+        <v>0.0843446747</v>
+      </c>
+      <c r="F13">
+        <v>0.01697103</v>
+      </c>
+      <c r="G13">
+        <v>12.837439</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/fund_assets.xlsx
+++ b/cypress/downloads/fund_assets.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,145 +427,859 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>شستا</v>
+        <v>شپدیس</v>
       </c>
       <c r="B2" t="str">
-        <v>شرکتهای چند رشته ای صنعتی</v>
+        <v>محصولات شیمیایی</v>
       </c>
       <c r="C2">
-        <v>383040000000</v>
+        <v>219450000000</v>
       </c>
       <c r="D2">
-        <v>1.1183032892</v>
+        <v>0.738796736</v>
       </c>
       <c r="E2">
-        <v>0.1004933494</v>
+        <v>0.0982476719</v>
       </c>
       <c r="F2">
-        <v>0.02407942</v>
+        <v>0.02442568</v>
       </c>
       <c r="G2">
-        <v>23.76821915</v>
+        <v>6.20442404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>تاپیکو</v>
+        <v>شبصیر</v>
       </c>
       <c r="B3" t="str">
         <v>محصولات شیمیایی</v>
       </c>
       <c r="C3">
-        <v>423570000000</v>
+        <v>115197324472</v>
       </c>
       <c r="D3">
-        <v>1.3141933514</v>
+        <v>1.0652496321</v>
       </c>
       <c r="E3">
-        <v>0.1214666973</v>
+        <v>0.1095377781</v>
       </c>
       <c r="F3">
-        <v>0.03023869</v>
+        <v>0.02507039</v>
       </c>
       <c r="G3">
-        <v>26.28316778</v>
+        <v>3.25692891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>حکشتی</v>
+        <v>جم</v>
       </c>
       <c r="B4" t="str">
-        <v>حمل و نقل، انبارداری و ارتباطات</v>
+        <v>محصولات شیمیایی</v>
       </c>
       <c r="C4">
-        <v>462080000000</v>
+        <v>206164234800</v>
       </c>
       <c r="D4">
-        <v>1.2883824768</v>
+        <v>0.7791102646</v>
       </c>
       <c r="E4">
-        <v>0.1348464215</v>
+        <v>0.0832981108</v>
       </c>
       <c r="F4">
-        <v>0.04477942</v>
+        <v>0.01506958</v>
       </c>
       <c r="G4">
-        <v>28.67277231</v>
+        <v>5.82880079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>وکار</v>
+        <v>جم پیلن</v>
       </c>
       <c r="B5" t="str">
-        <v>بانک ها، موسسات اعتباری و سایر نهادهای پولی</v>
+        <v>محصولات شیمیایی</v>
       </c>
       <c r="C5">
-        <v>242428634205</v>
+        <v>87594000000</v>
       </c>
       <c r="D5">
-        <v>0.2952068674</v>
+        <v>0.6616874503</v>
       </c>
       <c r="E5">
-        <v>0.0676030493</v>
+        <v>0.0824287909</v>
       </c>
       <c r="F5">
-        <v>0.0152652</v>
+        <v>0.01958349</v>
       </c>
       <c r="G5">
-        <v>15.04306836</v>
+        <v>2.47651091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>پاکشو</v>
+        <v>شپنا</v>
       </c>
       <c r="B6" t="str">
-        <v>محصولات شیمیایی</v>
+        <v>فرآورده های نفتی، کک و سوخت هسته ای</v>
       </c>
       <c r="C6">
-        <v>51612000000</v>
+        <v>55601600000</v>
       </c>
       <c r="D6">
-        <v>0.3267245052</v>
+        <v>1.3134938076</v>
       </c>
       <c r="E6">
-        <v>0.0524019207</v>
+        <v>0.142371418</v>
       </c>
       <c r="F6">
-        <v>-0.00239513</v>
+        <v>0.03316688</v>
       </c>
       <c r="G6">
-        <v>3.20260371</v>
+        <v>1.57200229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>وبصادر</v>
+        <v>حسینا</v>
       </c>
       <c r="B7" t="str">
+        <v>حمل و نقل، انبارداری و ارتباطات</v>
+      </c>
+      <c r="C7">
+        <v>58455000000</v>
+      </c>
+      <c r="D7">
+        <v>0.6033808721</v>
+      </c>
+      <c r="E7">
+        <v>0.1260180958</v>
+      </c>
+      <c r="F7">
+        <v>0.06362164</v>
+      </c>
+      <c r="G7">
+        <v>1.65267536</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>شستا</v>
+      </c>
+      <c r="B8" t="str">
+        <v>شرکتهای چند رشته ای صنعتی</v>
+      </c>
+      <c r="C8">
+        <v>17071488000</v>
+      </c>
+      <c r="D8">
+        <v>1.1183032892</v>
+      </c>
+      <c r="E8">
+        <v>0.1004933494</v>
+      </c>
+      <c r="F8">
+        <v>0.02407942</v>
+      </c>
+      <c r="G8">
+        <v>0.4826555</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>تاپیکو</v>
+      </c>
+      <c r="B9" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C9">
+        <v>443740000000</v>
+      </c>
+      <c r="D9">
+        <v>1.3141933514</v>
+      </c>
+      <c r="E9">
+        <v>0.1214666973</v>
+      </c>
+      <c r="F9">
+        <v>0.03023869</v>
+      </c>
+      <c r="G9">
+        <v>12.5456875</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>فجر</v>
+      </c>
+      <c r="B10" t="str">
+        <v>فلزات اساسی</v>
+      </c>
+      <c r="C10">
+        <v>26432800000</v>
+      </c>
+      <c r="D10">
+        <v>1.1428844512</v>
+      </c>
+      <c r="E10">
+        <v>0.1271432925</v>
+      </c>
+      <c r="F10">
+        <v>0.0178241</v>
+      </c>
+      <c r="G10">
+        <v>0.74732422</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>وپترو</v>
+      </c>
+      <c r="B11" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C11">
+        <v>140766000000</v>
+      </c>
+      <c r="D11">
+        <v>1.3831387848</v>
+      </c>
+      <c r="E11">
+        <v>0.1438966739</v>
+      </c>
+      <c r="F11">
+        <v>0.06651938</v>
+      </c>
+      <c r="G11">
+        <v>3.97982207</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>هجرت</v>
+      </c>
+      <c r="B12" t="str">
+        <v>خرده فروشی به استثنای وسایل نقلیه موتوری؛ تعمیر کالاهای شخصی و خانگی</v>
+      </c>
+      <c r="C12">
+        <v>60150000000</v>
+      </c>
+      <c r="D12">
+        <v>0.9979693976</v>
+      </c>
+      <c r="E12">
+        <v>0.1211045917</v>
+      </c>
+      <c r="F12">
+        <v>0.02540186</v>
+      </c>
+      <c r="G12">
+        <v>1.70059743</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>شاراک</v>
+      </c>
+      <c r="B13" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C13">
+        <v>26840000000</v>
+      </c>
+      <c r="D13">
+        <v>1.1194146864</v>
+      </c>
+      <c r="E13">
+        <v>0.0992062982</v>
+      </c>
+      <c r="F13">
+        <v>-0.00138739</v>
+      </c>
+      <c r="G13">
+        <v>0.75883682</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>بفجر</v>
+      </c>
+      <c r="B14" t="str">
+        <v>عرضه برق، گاز، بخار و آب گرم</v>
+      </c>
+      <c r="C14">
+        <v>18091742040</v>
+      </c>
+      <c r="D14">
+        <v>0.831539885</v>
+      </c>
+      <c r="E14">
+        <v>0.1199312484</v>
+      </c>
+      <c r="F14">
+        <v>0.04139591</v>
+      </c>
+      <c r="G14">
+        <v>0.51150075</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>شغدیر</v>
+      </c>
+      <c r="B15" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C15">
+        <v>50952635080</v>
+      </c>
+      <c r="D15">
+        <v>1.0167698809</v>
+      </c>
+      <c r="E15">
+        <v>0.1071447318</v>
+      </c>
+      <c r="F15">
+        <v>0.00481835</v>
+      </c>
+      <c r="G15">
+        <v>1.44056393</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>خبرنا</v>
+      </c>
+      <c r="B16" t="str">
+        <v>خودرو و ساخت قطعات</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>شگویا</v>
+      </c>
+      <c r="B17" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C17">
+        <v>6145296000</v>
+      </c>
+      <c r="D17">
+        <v>1.1111329135</v>
+      </c>
+      <c r="E17">
+        <v>0.107962623</v>
+      </c>
+      <c r="F17">
+        <v>0.01152115</v>
+      </c>
+      <c r="G17">
+        <v>0.17374355</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>فباهنر</v>
+      </c>
+      <c r="B18" t="str">
+        <v>فلزات اساسی</v>
+      </c>
+      <c r="C18">
+        <v>52500000000</v>
+      </c>
+      <c r="D18">
+        <v>1.4224918899</v>
+      </c>
+      <c r="E18">
+        <v>0.1494711127</v>
+      </c>
+      <c r="F18">
+        <v>0.03789462</v>
+      </c>
+      <c r="G18">
+        <v>1.48431197</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>شدوص</v>
+      </c>
+      <c r="B19" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C19">
+        <v>37018648410</v>
+      </c>
+      <c r="D19">
+        <v>1.1240377602</v>
+      </c>
+      <c r="E19">
+        <v>0.1212995956</v>
+      </c>
+      <c r="F19">
+        <v>0.04938439</v>
+      </c>
+      <c r="G19">
+        <v>1.04661377</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>مبین</v>
+      </c>
+      <c r="B20" t="str">
+        <v>عرضه برق، گاز، بخار و آب گرم</v>
+      </c>
+      <c r="C20">
+        <v>12166515750</v>
+      </c>
+      <c r="D20">
+        <v>0.7648818304</v>
+      </c>
+      <c r="E20">
+        <v>0.1024296542</v>
+      </c>
+      <c r="F20">
+        <v>0.02482314</v>
+      </c>
+      <c r="G20">
+        <v>0.34397914</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>ومپنا</v>
+      </c>
+      <c r="B21" t="str">
+        <v>عرضه برق، گاز، بخار و آب گرم</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>نوری</v>
+      </c>
+      <c r="B22" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C22">
+        <v>176677200000</v>
+      </c>
+      <c r="D22">
+        <v>0.9648994301</v>
+      </c>
+      <c r="E22">
+        <v>0.0989182275</v>
+      </c>
+      <c r="F22">
+        <v>0.03269374</v>
+      </c>
+      <c r="G22">
+        <v>4.99512539</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>فولاد</v>
+      </c>
+      <c r="B23" t="str">
+        <v>فلزات اساسی</v>
+      </c>
+      <c r="C23">
+        <v>105375000000</v>
+      </c>
+      <c r="D23">
+        <v>1.0347518668</v>
+      </c>
+      <c r="E23">
+        <v>0.1037731968</v>
+      </c>
+      <c r="F23">
+        <v>0.02507037</v>
+      </c>
+      <c r="G23">
+        <v>2.97922617</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>شکربن</v>
+      </c>
+      <c r="B24" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C24">
+        <v>209614943900</v>
+      </c>
+      <c r="D24">
+        <v>1.1250561744</v>
+      </c>
+      <c r="E24">
+        <v>0.1368520435</v>
+      </c>
+      <c r="F24">
+        <v>0.04464065</v>
+      </c>
+      <c r="G24">
+        <v>5.92636134</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>شخارک</v>
+      </c>
+      <c r="B25" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C25">
+        <v>37529948960</v>
+      </c>
+      <c r="D25">
+        <v>1.2040481104</v>
+      </c>
+      <c r="E25">
+        <v>0.1265005545</v>
+      </c>
+      <c r="F25">
+        <v>0.02834442</v>
+      </c>
+      <c r="G25">
+        <v>1.06106957</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>نیشکر</v>
+      </c>
+      <c r="B26" t="str">
+        <v>شرکتهای چند رشته ای صنعتی</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>پارسان</v>
+      </c>
+      <c r="B27" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C27">
+        <v>247548000000</v>
+      </c>
+      <c r="D27">
+        <v>1.0669454048</v>
+      </c>
+      <c r="E27">
+        <v>0.1135960195</v>
+      </c>
+      <c r="F27">
+        <v>0.02537442</v>
+      </c>
+      <c r="G27">
+        <v>6.9988278</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>شبریز</v>
+      </c>
+      <c r="B28" t="str">
+        <v>فرآورده های نفتی، کک و سوخت هسته ای</v>
+      </c>
+      <c r="C28">
+        <v>9060290200</v>
+      </c>
+      <c r="D28">
+        <v>1.1117284317</v>
+      </c>
+      <c r="E28">
+        <v>0.1329652245</v>
+      </c>
+      <c r="F28">
+        <v>0.02137462</v>
+      </c>
+      <c r="G28">
+        <v>0.25615804</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>کرماشا</v>
+      </c>
+      <c r="B29" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C29">
+        <v>68406000000</v>
+      </c>
+      <c r="D29">
+        <v>0.805510259</v>
+      </c>
+      <c r="E29">
+        <v>0.0923125134</v>
+      </c>
+      <c r="F29">
+        <v>0.01872986</v>
+      </c>
+      <c r="G29">
+        <v>1.93401609</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>شاملا</v>
+      </c>
+      <c r="B30" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C30">
+        <v>115072201300</v>
+      </c>
+      <c r="D30">
+        <v>1.1370670599</v>
+      </c>
+      <c r="E30">
+        <v>0.1355671014</v>
+      </c>
+      <c r="F30">
+        <v>0.03313358</v>
+      </c>
+      <c r="G30">
+        <v>3.25339135</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>شکام</v>
+      </c>
+      <c r="B31" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C31">
+        <v>31856762784</v>
+      </c>
+      <c r="D31">
+        <v>1.3487769521</v>
+      </c>
+      <c r="E31">
+        <v>0.1283551417</v>
+      </c>
+      <c r="F31">
+        <v>0.0101009</v>
+      </c>
+      <c r="G31">
+        <v>0.9006738</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>شرانل</v>
+      </c>
+      <c r="B32" t="str">
+        <v>فرآورده های نفتی، کک و سوخت هسته ای</v>
+      </c>
+      <c r="C32">
+        <v>38800000000</v>
+      </c>
+      <c r="D32">
+        <v>0.9004096122</v>
+      </c>
+      <c r="E32">
+        <v>0.0911943219</v>
+      </c>
+      <c r="F32">
+        <v>0.03109606</v>
+      </c>
+      <c r="G32">
+        <v>1.09697723</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>شیراز</v>
+      </c>
+      <c r="B33" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C33">
+        <v>167110911070</v>
+      </c>
+      <c r="D33">
+        <v>0.9952068725</v>
+      </c>
+      <c r="E33">
+        <v>0.1138919033</v>
+      </c>
+      <c r="F33">
+        <v>0.03171162</v>
+      </c>
+      <c r="G33">
+        <v>4.72466144</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>شمس</v>
+      </c>
+      <c r="B34" t="str">
+        <v>عرضه برق، گاز، بخار و آب گرم</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>پاکشو</v>
+      </c>
+      <c r="B35" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C35">
+        <v>19696500000</v>
+      </c>
+      <c r="D35">
+        <v>0.3267245052</v>
+      </c>
+      <c r="E35">
+        <v>0.0524019207</v>
+      </c>
+      <c r="F35">
+        <v>-0.00239513</v>
+      </c>
+      <c r="G35">
+        <v>0.55687144</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>فارس</v>
+      </c>
+      <c r="B36" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C36">
+        <v>536712000000</v>
+      </c>
+      <c r="D36">
+        <v>1.0638832935</v>
+      </c>
+      <c r="E36">
+        <v>0.1044676675</v>
+      </c>
+      <c r="F36">
+        <v>0.03390823</v>
+      </c>
+      <c r="G36">
+        <v>15.1742485</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>کربن</v>
+      </c>
+      <c r="B37" t="str">
+        <v>استخراج ذغال سنگ</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>وپست</v>
+      </c>
+      <c r="B38" t="str">
         <v>بانک ها، موسسات اعتباری و سایر نهادهای پولی</v>
       </c>
-      <c r="C7">
-        <v>48833099640</v>
-      </c>
-      <c r="D7">
-        <v>1.3316671459</v>
-      </c>
-      <c r="E7">
-        <v>0.1323380095</v>
-      </c>
-      <c r="F7">
-        <v>0.00657324</v>
-      </c>
-      <c r="G7">
-        <v>3.03016869</v>
+      <c r="C38">
+        <v>71552000000</v>
+      </c>
+      <c r="D38">
+        <v>0.6483067067</v>
+      </c>
+      <c r="E38">
+        <v>0.0887541037</v>
+      </c>
+      <c r="F38">
+        <v>0.03642061</v>
+      </c>
+      <c r="G38">
+        <v>2.02296172</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>کلر</v>
+      </c>
+      <c r="B39" t="str">
+        <v>محصولات شیمیایی</v>
+      </c>
+      <c r="C39">
+        <v>67300000000</v>
+      </c>
+      <c r="D39">
+        <v>0.9250944285</v>
+      </c>
+      <c r="E39">
+        <v>0.1267169843</v>
+      </c>
+      <c r="F39">
+        <v>0.01763021</v>
+      </c>
+      <c r="G39">
+        <v>1.90274658</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>خودرو</v>
+      </c>
+      <c r="B40" t="str">
+        <v>خودرو و ساخت قطعات</v>
+      </c>
+      <c r="C40">
+        <v>343250390</v>
+      </c>
+      <c r="D40">
+        <v>1.4625858088</v>
+      </c>
+      <c r="E40">
+        <v>0.1499290501</v>
+      </c>
+      <c r="F40">
+        <v>0.01323972</v>
+      </c>
+      <c r="G40">
+        <v>0.00970458</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G40"/>
   </ignoredErrors>
 </worksheet>
 </file>